--- a/biology/Botanique/Mucidule_visqueuse/Mucidule_visqueuse.xlsx
+++ b/biology/Botanique/Mucidule_visqueuse/Mucidule_visqueuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oudemansiella mucida
 La Mucidule visqueuse (Oudemansiella mucida) est une espèce de champignons basidiomycètes que l’on rencontre souvent en automne, en touffes ou en petits groupes sur les troncs de hêtres vivants ou morts. Comme leur nom l'indique, ces champignons sont recouverts d'une couche de mucus.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Collybia mucida
 Mucidula mucida</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau (3-10 cm) est blanc, éventuellement gris pâle à petites rides, d’abord hémisphérique lorsqu’il est jeune, il s’étale en vieillissant, la marge est translucide.
 Les lames sont horizontales, de couleur blanche avec une arête brunâtre.
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse, de la fin de l’été à l’automne, sur le bois des feuillus (particulièrement sur les hêtres) vivants ou morts, affaiblis par une cassure ou une blessure (orage ou tempête par exemple) ou sur ceux qui sont récemment tombés.
 </t>
@@ -608,7 +626,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mucidule visqueuse n’est pas toxique mais son aspect n’engage guère à la cueillir, ni à la consommer.
 </t>
